--- a/data/Experiment_record_part3.xlsx
+++ b/data/Experiment_record_part3.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/howechen/Project/ntu_sd6103_team_project/ntu_sd6103_data_systems_team_project/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Howe's T7/Project/ntu_sd6103_team_project/ntu_sd6103_data_systems_team_project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30119DF1-BEC0-424D-8824-E4572219BFA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F219A29-324C-F248-AC6A-13FB79CDDD97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6860" yWindow="1860" windowWidth="21980" windowHeight="16180" xr2:uid="{F7881BB2-72F5-C54E-B621-DF1B681C2775}"/>
   </bookViews>
